--- a/N 9433 UG Budi Takur.xlsx
+++ b/N 9433 UG Budi Takur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>17/02/2024</t>
+  </si>
+  <si>
+    <t>18/03/2024</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,12 +1077,25 @@
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>285435</v>
+      </c>
+      <c r="F22" s="1">
+        <f>7000+E22</f>
+        <v>292435</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
